--- a/PrimeNumbersExemplary/PrimeNumbersExemplary.xlsx
+++ b/PrimeNumbersExemplary/PrimeNumbersExemplary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grabde\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grabde\Desktop\c#\projekt02\PrimeNumbersExemplary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3560AE-0AE6-46D4-9FED-6048275C177F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE258E7-78BE-477A-B1CF-5AAABB37399D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimeNumber to Counter" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -564,15 +564,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -618,7 +617,14 @@
     <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -645,7 +651,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PrimeNumbersExemplary — kopia.xlsx]PrimeNumber to Counter!Tabela przestawna1</c:name>
+    <c:name>[PrimeNumbersExemplary.xlsx]PrimeNumber to Counter!Tabela przestawna1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -709,6 +715,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -765,6 +774,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -821,6 +833,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -877,6 +892,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -933,6 +951,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -989,6 +1010,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1045,6 +1069,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1101,6 +1128,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1157,6 +1187,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1213,6 +1246,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1658,7 +1694,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PrimeNumbersExemplary — kopia.xlsx]PrimeNumber to Time!Tabela przestawna2</c:name>
+    <c:name>[PrimeNumbersExemplary.xlsx]PrimeNumber to Time!Tabela przestawna2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1843,7 +1879,7 @@
             <c:numRef>
               <c:f>'PrimeNumber to Time'!$B$4:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8999999999999999E-5</c:v>
@@ -1963,7 +1999,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3188,15 +3224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3229,14 +3265,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3295,7 +3331,7 @@
         <n v="252285153224.74997"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Time" numFmtId="167">
+    <cacheField name="Time" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8999999999999999E-5" maxValue="8146.3449007991812"/>
     </cacheField>
     <cacheField name="IsPrime" numFmtId="0">
@@ -3364,7 +3400,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AE65DE5-68D1-4FAC-B287-C94E817B530E}" name="Tabela przestawna1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AE65DE5-68D1-4FAC-B287-C94E817B530E}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -3393,7 +3429,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3530,7 +3566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{994F0BEB-98CE-4E40-9238-E379F53821FE}" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{994F0BEB-98CE-4E40-9238-E379F53821FE}" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -3547,7 +3583,7 @@
       </items>
     </pivotField>
     <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3586,8 +3622,16 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Suma z Time" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma z Time" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -3910,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A40C138-B46E-4849-BF46-F78E67530E35}">
   <dimension ref="A3:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4019,21 +4063,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D97667-B76C-4CB9-A75F-BCD8F7428A39}">
   <dimension ref="A3:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4041,7 +4085,7 @@
       <c r="A4" s="4">
         <v>100913</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>3.8999999999999999E-5</v>
       </c>
     </row>
@@ -4049,7 +4093,7 @@
       <c r="A5" s="4">
         <v>1009139</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>3.8860000000000001E-3</v>
       </c>
     </row>
@@ -4057,7 +4101,7 @@
       <c r="A6" s="4">
         <v>10091401</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>4.0416000000000001E-2</v>
       </c>
     </row>
@@ -4065,7 +4109,7 @@
       <c r="A7" s="4">
         <v>100914061</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>0.42203600000000002</v>
       </c>
     </row>
@@ -4073,7 +4117,7 @@
       <c r="A8" s="4">
         <v>1009140611</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>4.2899070000000004</v>
       </c>
     </row>
@@ -4081,7 +4125,7 @@
       <c r="A9" s="4">
         <v>10091406133</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>81.463448999999997</v>
       </c>
     </row>
@@ -4089,7 +4133,7 @@
       <c r="A10" s="4">
         <v>100914061337</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>814.63449005650784</v>
       </c>
     </row>
@@ -4097,7 +4141,7 @@
       <c r="A11" s="4">
         <v>1009140613399</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>8146.3449007991812</v>
       </c>
     </row>
@@ -4105,7 +4149,7 @@
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>9047.1991238556893</v>
       </c>
     </row>
